--- a/component/upload/excel58.xlsx
+++ b/component/upload/excel58.xlsx
@@ -352,7 +352,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
